--- a/tablaproyectov2.xlsx
+++ b/tablaproyectov2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolando Ziller\Documents\Universidad\2021\Segundo ciclo\Compi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolando Ziller\Desktop\repos\Compiladores-Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D4892-35F4-496B-BBD0-CE6CA0A62830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB129E47-EF3A-4D43-9280-4719DE70FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19F1B313-649D-495A-A62F-E72C804552C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="428">
   <si>
     <t>:</t>
   </si>
@@ -1221,6 +1221,126 @@
   </si>
   <si>
     <t>No aceptada</t>
+  </si>
+  <si>
+    <t>prueba1</t>
+  </si>
+  <si>
+    <t>regla1</t>
+  </si>
+  <si>
+    <t>'&amp;'</t>
+  </si>
+  <si>
+    <t>No terminal</t>
+  </si>
+  <si>
+    <t>Termial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_1_2 </t>
+  </si>
+  <si>
+    <t>_hola_mundo</t>
+  </si>
+  <si>
+    <t>'='</t>
+  </si>
+  <si>
+    <t>test2222</t>
+  </si>
+  <si>
+    <t>itworkssss111</t>
+  </si>
+  <si>
+    <t>'&lt;'</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>bexpr</t>
+  </si>
+  <si>
+    <t>'\n'</t>
+  </si>
+  <si>
+    <t>gramatica1</t>
+  </si>
+  <si>
+    <t>}'</t>
+  </si>
+  <si>
+    <t>'('</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>')'</t>
+  </si>
+  <si>
+    <t>'+'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'*' </t>
+  </si>
+  <si>
+    <t>jordan_1</t>
+  </si>
+  <si>
+    <t>'23'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> goat</t>
+  </si>
+  <si>
+    <t>'4'</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>'!'</t>
+  </si>
+  <si>
+    <t>_celtics1</t>
+  </si>
+  <si>
+    <t>'0'</t>
+  </si>
+  <si>
+    <t>tatum</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>wuuuu</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>'b'</t>
+  </si>
+  <si>
+    <t>'x'</t>
+  </si>
+  <si>
+    <t>'z'</t>
+  </si>
+  <si>
+    <t>'y'</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>numero</t>
   </si>
 </sst>
 </file>
@@ -1698,11 +1818,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB050331-C655-43B1-A82D-58C490C71B0E}">
-  <dimension ref="A1:BM48"/>
+  <dimension ref="A1:BM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL4" sqref="BL4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4088,6 +4206,12 @@
       <c r="AS19" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="AV19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="AZ19" s="1" t="s">
         <v>169</v>
       </c>
@@ -4215,6 +4339,12 @@
       </c>
       <c r="AS20" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW20" s="16" t="s">
+        <v>416</v>
       </c>
       <c r="AZ20" s="1" t="s">
         <v>260</v>
@@ -4344,6 +4474,12 @@
       <c r="AS21" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="AV21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="AZ21" s="1" t="s">
         <v>176</v>
       </c>
@@ -4454,6 +4590,12 @@
       <c r="AS22" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="AV22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="AZ22" s="1" t="s">
         <v>178</v>
       </c>
@@ -4564,6 +4706,12 @@
       <c r="AS23" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="AV23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW23" s="16" t="s">
+        <v>414</v>
+      </c>
       <c r="AZ23" s="1" t="s">
         <v>263</v>
       </c>
@@ -4626,6 +4774,12 @@
       <c r="AS24" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="AV24" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="BE24" s="1" t="s">
         <v>292</v>
       </c>
@@ -4690,6 +4844,30 @@
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="AK26" s="6" t="s">
         <v>130</v>
       </c>
@@ -4714,6 +4892,12 @@
       <c r="AS26" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="BA26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="BE26" s="1" t="s">
         <v>298</v>
       </c>
@@ -4726,8 +4910,38 @@
       <c r="BH26" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BK26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="AK27" s="6" t="s">
         <v>132</v>
       </c>
@@ -4752,6 +4966,12 @@
       <c r="AS27" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="BA27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BB27" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="BE27" s="1" t="s">
         <v>300</v>
       </c>
@@ -4764,8 +4984,38 @@
       <c r="BH27" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BK27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="AK28" s="6" t="s">
         <v>133</v>
       </c>
@@ -4790,6 +5040,12 @@
       <c r="AS28" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="BA28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="BE28" s="1" t="s">
         <v>303</v>
       </c>
@@ -4801,6 +5057,12 @@
       </c>
       <c r="BH28" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BL28" s="16" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.25">
@@ -4828,6 +5090,12 @@
       <c r="AS29" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="BA29" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BB29" s="16" t="s">
+        <v>422</v>
+      </c>
       <c r="BE29" s="1" t="s">
         <v>306</v>
       </c>
@@ -5338,6 +5606,12 @@
       </c>
     </row>
     <row r="44" spans="37:60" x14ac:dyDescent="0.25">
+      <c r="AL44" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="AP44" s="6" t="s">
         <v>222</v>
       </c>
@@ -5352,6 +5626,12 @@
       </c>
     </row>
     <row r="45" spans="37:60" x14ac:dyDescent="0.25">
+      <c r="AL45" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM45" s="16" t="s">
+        <v>403</v>
+      </c>
       <c r="AP45" s="6" t="s">
         <v>224</v>
       </c>
@@ -5364,8 +5644,20 @@
       <c r="AS45" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="BF45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG45" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="46" spans="37:60" x14ac:dyDescent="0.25">
+      <c r="AL46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="AP46" s="6" t="s">
         <v>153</v>
       </c>
@@ -5378,8 +5670,20 @@
       <c r="AS46" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="BF46" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BG46" s="16" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="47" spans="37:60" x14ac:dyDescent="0.25">
+      <c r="AL47" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM47" s="16" t="s">
+        <v>404</v>
+      </c>
       <c r="AP47" s="6" t="s">
         <v>55</v>
       </c>
@@ -5392,8 +5696,20 @@
       <c r="AS47" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="BF47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG47" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="37:60" x14ac:dyDescent="0.25">
+      <c r="AL48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM48" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="AP48" s="6" t="s">
         <v>56</v>
       </c>
@@ -5405,6 +5721,94 @@
       </c>
       <c r="AS48" s="12" t="s">
         <v>72</v>
+      </c>
+      <c r="BF48" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BG48" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AL49" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM49" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF49" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BG49" s="16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AL50" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM50" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AL51" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM51" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR52" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR54" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="38:59" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
